--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4002.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4002.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.382020117237052</v>
+        <v>2.584159851074219</v>
       </c>
       <c r="B1">
-        <v>2.486721585715677</v>
+        <v>4.958879947662354</v>
       </c>
       <c r="C1">
-        <v>3.185971961405535</v>
+        <v>4.926409244537354</v>
       </c>
       <c r="D1">
-        <v>3.781863719369263</v>
+        <v>8.028890609741211</v>
       </c>
       <c r="E1">
-        <v>2.00032272937875</v>
+        <v>3.429958343505859</v>
       </c>
     </row>
   </sheetData>
